--- a/dataEntry.xlsx
+++ b/dataEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\OneDrive\Desktop\ecliVibesPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55FD43-EC0A-42B0-89D3-A83E89B37940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71295A15-A06D-4968-88E6-C647B5F5B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>Agency Name</t>
+  </si>
+  <si>
+    <t>Agency Phone Number</t>
+  </si>
+  <si>
+    <t>Agency Website</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>How does your agency meet these service standards</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Our agency's work focuses on the following services</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Tell Us More!</t>
+  </si>
+  <si>
+    <t>All of Long Island</t>
+  </si>
+  <si>
+    <t>Charity-Based Shelter</t>
+  </si>
+  <si>
+    <t>DSS Shelter</t>
+  </si>
+  <si>
+    <t>DV Emergency Shelter</t>
+  </si>
+  <si>
+    <t>How does your agency meet these service standards?</t>
+  </si>
+  <si>
+    <t>Nassau County</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None0</t>
+  </si>
+  <si>
+    <t>Suffolk County</t>
+  </si>
+  <si>
+    <t>Tier II Shelter</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>What are the time limitations for housing options?</t>
+  </si>
+  <si>
+    <t>What is your housing funding source?</t>
+  </si>
+  <si>
+    <t>What type of housing is offered for human trafficking surviviors?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15-18</t>
+  </si>
+  <si>
+    <t>18-23</t>
+  </si>
+  <si>
+    <t>23+</t>
+  </si>
+  <si>
+    <t>Case worker can call on behalf of the survivor</t>
+  </si>
+  <si>
+    <t>Do you have any COVID-19 accommodations or restrictions? Please explain</t>
+  </si>
+  <si>
+    <t>Do you have any questions that you feel we should add to this survey? Please share any issues and concerns that you have. What barriers or gaps in service do you experience?</t>
+  </si>
+  <si>
+    <t>Documented foreign national</t>
+  </si>
+  <si>
+    <t>English only</t>
+  </si>
+  <si>
+    <t>Housing is available for</t>
+  </si>
+  <si>
+    <t>How are survivors able to access services?</t>
+  </si>
+  <si>
+    <t>How often would you participate in ongoing human trafficking housing resource meetings to share concerns and updates?</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>If you chose any of the above options, please explain</t>
+  </si>
+  <si>
+    <t>If you chose multi-language speaking providers, what languages do your service providers speak?</t>
+  </si>
+  <si>
+    <t>If you have ever been denied housing to a victim of human trafficking, what were the reasons?</t>
+  </si>
+  <si>
+    <t>In-person</t>
+  </si>
+  <si>
+    <t>Is there any aspect of the housing setting that is unique? Please describe: EG- therapeutic horses, painting classes yoga onsite, etc...</t>
+  </si>
+  <si>
+    <t>Language Access Hotline</t>
+  </si>
+  <si>
+    <t>Multi-Language Speaking Providers</t>
+  </si>
+  <si>
+    <t>No age requirement</t>
+  </si>
+  <si>
+    <t>No1</t>
+  </si>
+  <si>
+    <t>No4</t>
+  </si>
+  <si>
+    <t>No8</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>None of the above6</t>
+  </si>
+  <si>
+    <t>None of the above7</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Please describe the housing setting</t>
+  </si>
+  <si>
+    <t>Survivor calls on their own</t>
+  </si>
+  <si>
+    <t>Survivor can call with a case worker</t>
+  </si>
+  <si>
+    <t>US Citizen</t>
+  </si>
+  <si>
+    <t>Under 12</t>
+  </si>
+  <si>
+    <t>Undocumented foreign national</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Unsure2</t>
+  </si>
+  <si>
+    <t>Unsure5</t>
+  </si>
+  <si>
+    <t>What are your cultural competency policies and guidelines? Please explain</t>
+  </si>
+  <si>
+    <t>What are your screening procedures? Please describe</t>
+  </si>
+  <si>
+    <t>What supportive services are provided?</t>
+  </si>
+  <si>
+    <t>Which population do you target?</t>
+  </si>
+  <si>
+    <t>With regards to substance abuse, individuals</t>
+  </si>
+  <si>
+    <t>Yes (If yes, please email it to Molly England menengland@empowerli.org</t>
+  </si>
+  <si>
+    <t>Yes0</t>
+  </si>
+  <si>
+    <t>Yes3</t>
+  </si>
   <si>
     <t>Enter Name</t>
   </si>
@@ -28,73 +241,7 @@
     <t>Pronouns</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Agency Email</t>
-  </si>
-  <si>
-    <t>Agency Name</t>
-  </si>
-  <si>
-    <t>Agency Phone Number</t>
-  </si>
-  <si>
-    <t>Agency Website</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>How does your agency meet these service standards</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Our agency's work focuses on the following services</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Tell Us More!</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Nicholas Squicciarini</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>They/Them</t>
-  </si>
-  <si>
-    <t>He/Him</t>
-  </si>
-  <si>
-    <t>asdasda</t>
-  </si>
-  <si>
-    <t>fsdfdsfdsfs</t>
-  </si>
-  <si>
-    <t>dfsfsdfsd</t>
-  </si>
-  <si>
-    <t>fdsfsdf</t>
-  </si>
-  <si>
-    <t>Staff Trainings</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>adsfdfdsf</t>
   </si>
 </sst>
 </file>
@@ -496,30 +643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:BV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,65 +691,188 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/dataEntry.xlsx
+++ b/dataEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\OneDrive\Desktop\ecliVibesPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71295A15-A06D-4968-88E6-C647B5F5B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BC5BA-551E-46D3-936D-DE15DD665407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,219 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>How does your agency meet these service standards</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Our agency's work focuses on the following services</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Tell Us More!</t>
+  </si>
+  <si>
+    <t>All of Long Island</t>
+  </si>
+  <si>
+    <t>Charity-Based Shelter</t>
+  </si>
+  <si>
+    <t>DSS Shelter</t>
+  </si>
+  <si>
+    <t>DV Emergency Shelter</t>
+  </si>
+  <si>
+    <t>How does your agency meet these service standards?</t>
+  </si>
+  <si>
+    <t>Nassau County</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None0</t>
+  </si>
+  <si>
+    <t>Suffolk County</t>
+  </si>
+  <si>
+    <t>Tier II Shelter</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>What are the time limitations for housing options?</t>
+  </si>
+  <si>
+    <t>What is your housing funding source?</t>
+  </si>
+  <si>
+    <t>What type of housing is offered for human trafficking surviviors?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15-18</t>
+  </si>
+  <si>
+    <t>18-23</t>
+  </si>
+  <si>
+    <t>23+</t>
+  </si>
+  <si>
+    <t>Case worker can call on behalf of the survivor</t>
+  </si>
+  <si>
+    <t>Do you have any COVID-19 accommodations or restrictions? Please explain</t>
+  </si>
+  <si>
+    <t>Do you have any questions that you feel we should add to this survey? Please share any issues and concerns that you have. What barriers or gaps in service do you experience?</t>
+  </si>
+  <si>
+    <t>Documented foreign national</t>
+  </si>
+  <si>
+    <t>English only</t>
+  </si>
+  <si>
+    <t>Housing is available for</t>
+  </si>
+  <si>
+    <t>How are survivors able to access services?</t>
+  </si>
+  <si>
+    <t>How often would you participate in ongoing human trafficking housing resource meetings to share concerns and updates?</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>If you chose any of the above options, please explain</t>
+  </si>
+  <si>
+    <t>If you chose multi-language speaking providers, what languages do your service providers speak?</t>
+  </si>
+  <si>
+    <t>If you have ever been denied housing to a victim of human trafficking, what were the reasons?</t>
+  </si>
+  <si>
+    <t>In-person</t>
+  </si>
+  <si>
+    <t>Is there any aspect of the housing setting that is unique? Please describe: EG- therapeutic horses, painting classes yoga onsite, etc...</t>
+  </si>
+  <si>
+    <t>Language Access Hotline</t>
+  </si>
+  <si>
+    <t>Multi-Language Speaking Providers</t>
+  </si>
+  <si>
+    <t>No age requirement</t>
+  </si>
+  <si>
+    <t>No1</t>
+  </si>
+  <si>
+    <t>No4</t>
+  </si>
+  <si>
+    <t>No8</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>None of the above6</t>
+  </si>
+  <si>
+    <t>None of the above7</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Please describe the housing setting</t>
+  </si>
+  <si>
+    <t>Survivor calls on their own</t>
+  </si>
+  <si>
+    <t>Survivor can call with a case worker</t>
+  </si>
+  <si>
+    <t>US Citizen</t>
+  </si>
+  <si>
+    <t>Under 12</t>
+  </si>
+  <si>
+    <t>Undocumented foreign national</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Unsure2</t>
+  </si>
+  <si>
+    <t>Unsure5</t>
+  </si>
+  <si>
+    <t>What are your cultural competency policies and guidelines? Please explain</t>
+  </si>
+  <si>
+    <t>What are your screening procedures? Please describe</t>
+  </si>
+  <si>
+    <t>What supportive services are provided?</t>
+  </si>
+  <si>
+    <t>Which population do you target?</t>
+  </si>
+  <si>
+    <t>With regards to substance abuse, individuals</t>
+  </si>
+  <si>
+    <t>Yes (If yes, please email it to Molly England menengland@empowerli.org</t>
+  </si>
+  <si>
+    <t>Yes0</t>
+  </si>
+  <si>
+    <t>Yes3</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>Agency Email</t>
+  </si>
+  <si>
     <t>Agency Name</t>
   </si>
   <si>
@@ -29,219 +242,6 @@
   </si>
   <si>
     <t>Agency Website</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>How does your agency meet these service standards</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Our agency's work focuses on the following services</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Tell Us More!</t>
-  </si>
-  <si>
-    <t>All of Long Island</t>
-  </si>
-  <si>
-    <t>Charity-Based Shelter</t>
-  </si>
-  <si>
-    <t>DSS Shelter</t>
-  </si>
-  <si>
-    <t>DV Emergency Shelter</t>
-  </si>
-  <si>
-    <t>How does your agency meet these service standards?</t>
-  </si>
-  <si>
-    <t>Nassau County</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None0</t>
-  </si>
-  <si>
-    <t>Suffolk County</t>
-  </si>
-  <si>
-    <t>Tier II Shelter</t>
-  </si>
-  <si>
-    <t>Unsure</t>
-  </si>
-  <si>
-    <t>What are the time limitations for housing options?</t>
-  </si>
-  <si>
-    <t>What is your housing funding source?</t>
-  </si>
-  <si>
-    <t>What type of housing is offered for human trafficking surviviors?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>15-18</t>
-  </si>
-  <si>
-    <t>18-23</t>
-  </si>
-  <si>
-    <t>23+</t>
-  </si>
-  <si>
-    <t>Case worker can call on behalf of the survivor</t>
-  </si>
-  <si>
-    <t>Do you have any COVID-19 accommodations or restrictions? Please explain</t>
-  </si>
-  <si>
-    <t>Do you have any questions that you feel we should add to this survey? Please share any issues and concerns that you have. What barriers or gaps in service do you experience?</t>
-  </si>
-  <si>
-    <t>Documented foreign national</t>
-  </si>
-  <si>
-    <t>English only</t>
-  </si>
-  <si>
-    <t>Housing is available for</t>
-  </si>
-  <si>
-    <t>How are survivors able to access services?</t>
-  </si>
-  <si>
-    <t>How often would you participate in ongoing human trafficking housing resource meetings to share concerns and updates?</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>If you chose any of the above options, please explain</t>
-  </si>
-  <si>
-    <t>If you chose multi-language speaking providers, what languages do your service providers speak?</t>
-  </si>
-  <si>
-    <t>If you have ever been denied housing to a victim of human trafficking, what were the reasons?</t>
-  </si>
-  <si>
-    <t>In-person</t>
-  </si>
-  <si>
-    <t>Is there any aspect of the housing setting that is unique? Please describe: EG- therapeutic horses, painting classes yoga onsite, etc...</t>
-  </si>
-  <si>
-    <t>Language Access Hotline</t>
-  </si>
-  <si>
-    <t>Multi-Language Speaking Providers</t>
-  </si>
-  <si>
-    <t>No age requirement</t>
-  </si>
-  <si>
-    <t>No1</t>
-  </si>
-  <si>
-    <t>No4</t>
-  </si>
-  <si>
-    <t>No8</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>None of the above6</t>
-  </si>
-  <si>
-    <t>None of the above7</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Please describe the housing setting</t>
-  </si>
-  <si>
-    <t>Survivor calls on their own</t>
-  </si>
-  <si>
-    <t>Survivor can call with a case worker</t>
-  </si>
-  <si>
-    <t>US Citizen</t>
-  </si>
-  <si>
-    <t>Under 12</t>
-  </si>
-  <si>
-    <t>Undocumented foreign national</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Unsure2</t>
-  </si>
-  <si>
-    <t>Unsure5</t>
-  </si>
-  <si>
-    <t>What are your cultural competency policies and guidelines? Please explain</t>
-  </si>
-  <si>
-    <t>What are your screening procedures? Please describe</t>
-  </si>
-  <si>
-    <t>What supportive services are provided?</t>
-  </si>
-  <si>
-    <t>Which population do you target?</t>
-  </si>
-  <si>
-    <t>With regards to substance abuse, individuals</t>
-  </si>
-  <si>
-    <t>Yes (If yes, please email it to Molly England menengland@empowerli.org</t>
-  </si>
-  <si>
-    <t>Yes0</t>
-  </si>
-  <si>
-    <t>Yes3</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Pronouns</t>
-  </si>
-  <si>
-    <t>Agency Email</t>
   </si>
 </sst>
 </file>
@@ -646,10 +646,78 @@
   <dimension ref="A1:BV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="160" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="120.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="33" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="69" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="37" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
